--- a/Option Strategy and Tracker - Reporting Tool Sample.xlsx
+++ b/Option Strategy and Tracker - Reporting Tool Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trading_dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Documents\GitHub\OptionsTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481A1B5-2022-4D4D-A594-3AF8E3D6EC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D7EEF-37E5-453D-B69C-B7073333AB9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4193EC2E-B129-4286-A59C-EA55637EFC8F}"/>
   </bookViews>
@@ -1158,9 +1158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1336,7 +1336,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1465,7 +1465,7 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,30 +1475,30 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -1506,14 +1506,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1525,20 +1525,20 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4889,7 +4889,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,19 +4901,21 @@
     <col min="5" max="5" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="89" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" style="66" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.42578125" style="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5021,7 +5023,7 @@
       </c>
       <c r="H2" s="8">
         <f ca="1">G2-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J2" s="89">
         <v>3.63</v>
@@ -5092,7 +5094,7 @@
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H8" ca="1" si="2">G3-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J3" s="89">
         <v>5.6</v>
@@ -5163,7 +5165,7 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J4" s="89">
         <v>5.49</v>
@@ -5234,7 +5236,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J5" s="89">
         <v>3.53</v>
@@ -5305,7 +5307,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J6" s="89">
         <v>0.62</v>
@@ -5376,7 +5378,7 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J7" s="89">
         <v>2.37</v>
@@ -5447,7 +5449,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>-22</v>
+        <v>-129</v>
       </c>
       <c r="J8" s="89">
         <v>1.92</v>
@@ -5518,7 +5520,7 @@
       </c>
       <c r="H9" s="6">
         <f t="shared" ref="H9:H10" ca="1" si="12">G9-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J9" s="89">
         <v>2.04</v>
@@ -5592,7 +5594,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>-84</v>
       </c>
       <c r="J10" s="89">
         <v>0.38</v>
@@ -5663,7 +5665,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" ref="H12:H19" ca="1" si="14">G12-TODAY()</f>
-        <v>4</v>
+        <v>-103</v>
       </c>
       <c r="J12" s="89">
         <v>1.25</v>
@@ -5731,7 +5733,7 @@
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>-103</v>
       </c>
       <c r="J13" s="89">
         <v>4.47</v>
@@ -5788,7 +5790,7 @@
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>-87</v>
       </c>
       <c r="J14" s="89">
         <v>0.44</v>
@@ -5856,7 +5858,7 @@
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J15" s="89">
         <v>2.0299999999999998</v>
@@ -5917,7 +5919,7 @@
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J16" s="89">
         <v>2.59</v>
@@ -5983,7 +5985,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J17" s="89">
         <v>0.67</v>
@@ -6045,7 +6047,7 @@
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>83</v>
+        <v>-24</v>
       </c>
       <c r="J18" s="89">
         <v>0.85</v>
@@ -6097,7 +6099,7 @@
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>-103</v>
       </c>
       <c r="J19" s="89">
         <v>1.25</v>
@@ -6157,7 +6159,7 @@
       </c>
       <c r="H20" s="6">
         <f t="shared" ref="H20" ca="1" si="32">G20-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="J20" s="89">
         <v>0.7</v>
@@ -6222,7 +6224,7 @@
       </c>
       <c r="H22" s="6">
         <f ca="1">G22-TODAY()</f>
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I22" s="6">
         <v>0.15</v>
@@ -6288,7 +6290,7 @@
       </c>
       <c r="H23" s="6">
         <f ca="1">G23-TODAY()</f>
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="I23" s="6">
         <v>0.97</v>
@@ -7972,7 +7974,7 @@
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H3" ca="1" si="0">G2-TODAY()</f>
-        <v>-29</v>
+        <v>-136</v>
       </c>
       <c r="J2" s="62">
         <v>0.09</v>
@@ -8043,7 +8045,7 @@
       </c>
       <c r="H3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>-29</v>
+        <v>-136</v>
       </c>
       <c r="I3" s="6">
         <v>0.04</v>
@@ -8203,7 +8205,7 @@
       </c>
       <c r="H2" s="8">
         <f t="shared" ref="H2" ca="1" si="0">G2-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="62">
@@ -8281,7 +8283,7 @@
       </c>
       <c r="H3" s="76">
         <f t="shared" ref="H3" ca="1" si="8">G3-TODAY()</f>
-        <v>-8</v>
+        <v>-115</v>
       </c>
       <c r="I3" s="76"/>
       <c r="J3" s="77">
